--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,21 +786,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
+          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
+          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -828,7 +828,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -837,12 +837,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -870,7 +870,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -879,12 +879,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02mUaTeDZ6j7F5SzL1iqfA8h1ZMdgtmrY72ZWD2d1prBbJDJdZDqTiF3AwTCUx3bMxl</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -912,7 +912,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -921,40 +921,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Quieroooo</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2026-01-13T02:28:24.000Z</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>46035.10305555556</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>46035</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>02:28:24</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -963,12 +945,12 @@
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2273812616465347', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIyNzM4MTI2MTY0NjUzNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMjczODEyNjE2NDY1MzQ3', 'date': '2026-01-13T02:28:24.000Z', 'text': 'Quieroooo', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/58</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -992,29 +974,27 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Eso es palitroques disque stips</t>
+          <t>Quieroooo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-01-13T01:24:55.000Z</t>
+          <t>2026-01-13T02:28:24.000Z</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>46035.0589699074</v>
-      </c>
-      <c r="I11" s="3" t="n">
+        <v>46035.10305555556</v>
+      </c>
+      <c r="I11" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>01:24:55</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:28:24</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1026,7 +1006,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1210731534495478', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyMTA3MzE1MzQ0OTU0Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjEwNzMxNTM0NDk1NDc4', 'date': '2026-01-13T01:24:55.000Z', 'text': 'Eso es palitroques disque stips', 'profileUrl': 'https://www.facebook.com/rada.42665</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2273812616465347', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIyNzM4MTI2MTY0NjUzNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMjczODEyNjE2NDY1MzQ3', 'date': '2026-01-13T02:28:24.000Z', 'text': 'Quieroooo', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/58</t>
         </is>
       </c>
     </row>
@@ -1052,29 +1032,27 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Quierooooo!</t>
+          <t>Eso es palitroques disque stips</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-01-12T23:34:49.000Z</t>
+          <t>2026-01-13T01:24:55.000Z</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>46034.98251157408</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>46034</v>
+        <v>46035.0589699074</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>46035</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>23:34:49</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>01:24:55</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1086,7 +1064,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2308872496293501', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIzMDg4NzI0OTYyOTM1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMzA4ODcyNDk2MjkzNTAx', 'date': '2026-01-12T23:34:49.000Z', 'text': 'Quierooooo!', 'profileUrl': 'https://www.facebook.com/lilianapatricia.aragon', 'prof</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1210731534495478', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyMTA3MzE1MzQ0OTU0Nzg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjEwNzMxNTM0NDk1NDc4', 'date': '2026-01-13T01:24:55.000Z', 'text': 'Eso es palitroques disque stips', 'profileUrl': 'https://www.facebook.com/rada.42665</t>
         </is>
       </c>
     </row>
@@ -1112,29 +1090,27 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yo no como arequipe es  muy dulce</t>
+          <t>Quierooooo!</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-01-12T23:24:47.000Z</t>
+          <t>2026-01-12T23:34:49.000Z</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>46034.97554398148</v>
-      </c>
-      <c r="I13" s="3" t="n">
+        <v>46034.98251157408</v>
+      </c>
+      <c r="I13" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>23:24:47</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:34:49</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1146,7 +1122,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2914320938777020', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI5MTQzMjA5Mzg3NzcwMjA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yOTE0MzIwOTM4Nzc3MDIw', 'date': '2026-01-12T23:24:47.000Z', 'text': 'Yo no como arequipe es  muy dulce', 'profileUrl': 'https://www.facebook.com/gladys.s</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2308872496293501', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIzMDg4NzI0OTYyOTM1MDE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMzA4ODcyNDk2MjkzNTAx', 'date': '2026-01-12T23:34:49.000Z', 'text': 'Quierooooo!', 'profileUrl': 'https://www.facebook.com/lilianapatricia.aragon', 'prof</t>
         </is>
       </c>
     </row>
@@ -1172,29 +1148,27 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Con pan galletas queso uhhhhh</t>
+          <t>Yo no como arequipe es  muy dulce</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-01-12T20:06:54.000Z</t>
+          <t>2026-01-12T23:24:47.000Z</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>46034.838125</v>
-      </c>
-      <c r="I14" s="3" t="n">
+        <v>46034.97554398148</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20:06:54</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>23:24:47</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1206,7 +1180,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1180630060849506', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzExODA2MzAwNjA4NDk1MDY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMTgwNjMwMDYwODQ5NTA2', 'date': '2026-01-12T20:06:54.000Z', 'text': 'Con pan galletas queso uhhhhh', 'profileUrl': 'https://www.facebook.com/rubi.estela.</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2914320938777020', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI5MTQzMjA5Mzg3NzcwMjA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yOTE0MzIwOTM4Nzc3MDIw', 'date': '2026-01-12T23:24:47.000Z', 'text': 'Yo no como arequipe es  muy dulce', 'profileUrl': 'https://www.facebook.com/gladys.s</t>
         </is>
       </c>
     </row>
@@ -1232,29 +1206,27 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Con cuchara</t>
+          <t>Con pan galletas queso uhhhhh</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-01-12T18:38:02.000Z</t>
+          <t>2026-01-12T20:06:54.000Z</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>46034.77641203703</v>
-      </c>
-      <c r="I15" s="3" t="n">
+        <v>46034.838125</v>
+      </c>
+      <c r="I15" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18:38:02</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:06:54</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1266,7 +1238,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1397832798793739', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzOTc4MzI3OTg3OTM3Mzk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzk3ODMyNzk4NzkzNzM5', 'date': '2026-01-12T18:38:02.000Z', 'text': 'Con cuchara', 'profileUrl': 'https://www.facebook.com/margaritamaria.florezperez', '</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1180630060849506', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzExODA2MzAwNjA4NDk1MDY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMTgwNjMwMDYwODQ5NTA2', 'date': '2026-01-12T20:06:54.000Z', 'text': 'Con pan galletas queso uhhhhh', 'profileUrl': 'https://www.facebook.com/rubi.estela.</t>
         </is>
       </c>
     </row>
@@ -1292,29 +1264,27 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Y por qué pusieron a una rubia de ojos azules??</t>
+          <t>Con cuchara</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-01-12T16:10:56.000Z</t>
+          <t>2026-01-12T18:38:02.000Z</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>46034.67425925926</v>
-      </c>
-      <c r="I16" s="3" t="n">
+        <v>46034.77641203703</v>
+      </c>
+      <c r="I16" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16:10:56</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>18:38:02</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1326,7 +1296,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=881748674375459', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg4MTc0ODY3NDM3NTQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184ODE3NDg2NzQzNzU0NTk=', 'date': '2026-01-12T16:10:56.000Z', 'text': 'Y por qué pusieron a una rubia de ojos azules??', 'profilePicture': 'https://scontent</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1397832798793739', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzOTc4MzI3OTg3OTM3Mzk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzk3ODMyNzk4NzkzNzM5', 'date': '2026-01-12T18:38:02.000Z', 'text': 'Con cuchara', 'profileUrl': 'https://www.facebook.com/margaritamaria.florezperez', '</t>
         </is>
       </c>
     </row>
@@ -1352,29 +1322,27 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Alpina les repito con biscochos de achiras es más Rico  hagan una producción  y verá cómo van a vender es súper delicioso espero su respuesta</t>
+          <t>Y por qué pusieron a una rubia de ojos azules??</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-01-12T15:06:29.000Z</t>
+          <t>2026-01-12T16:10:56.000Z</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>46034.62950231481</v>
-      </c>
-      <c r="I17" s="3" t="n">
+        <v>46034.67425925926</v>
+      </c>
+      <c r="I17" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15:06:29</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>16:10:56</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1386,7 +1354,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3369922819831653', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMzNjk5MjI4MTk4MzE2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMzY5OTIyODE5ODMxNjUz', 'date': '2026-01-12T15:06:29.000Z', 'text': 'Alpina les repito con biscochos de achiras es más Rico  hagan una producción  y verá</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=881748674375459', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg4MTc0ODY3NDM3NTQ1OQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184ODE3NDg2NzQzNzU0NTk=', 'date': '2026-01-12T16:10:56.000Z', 'text': 'Y por qué pusieron a una rubia de ojos azules??', 'profilePicture': 'https://scontent</t>
         </is>
       </c>
     </row>
@@ -1412,29 +1380,27 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Con obleas</t>
+          <t>Alpina les repito con biscochos de achiras es más Rico  hagan una producción  y verá cómo van a vender es súper delicioso espero su respuesta</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-01-12T13:35:29.000Z</t>
+          <t>2026-01-12T15:06:29.000Z</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>46034.56630787037</v>
-      </c>
-      <c r="I18" s="3" t="n">
+        <v>46034.62950231481</v>
+      </c>
+      <c r="I18" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13:35:29</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>15:06:29</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1446,7 +1412,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=891861676719111', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg5MTg2MTY3NjcxOTExMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184OTE4NjE2NzY3MTkxMTE=', 'date': '2026-01-12T13:35:29.000Z', 'text': 'Con obleas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/46</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3369922819831653', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMzNjk5MjI4MTk4MzE2NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMzY5OTIyODE5ODMxNjUz', 'date': '2026-01-12T15:06:29.000Z', 'text': 'Alpina les repito con biscochos de achiras es más Rico  hagan una producción  y verá</t>
         </is>
       </c>
     </row>
@@ -1472,23 +1438,23 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Con calado</t>
+          <t>Con obleas</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-01-12T05:00:42.000Z</t>
+          <t>2026-01-12T13:35:29.000Z</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>46034.20881944444</v>
+        <v>46034.56630787037</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>05:00:42</t>
+          <t>13:35:29</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1504,7 +1470,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1753137772023259', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE3NTMxMzc3NzIwMjMyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNzUzMTM3NzcyMDIzMjU5', 'date': '2026-01-12T05:00:42.000Z', 'text': 'Con calado', 'profileUrl': 'https://www.facebook.com/maria.pava.503', 'profilePictur</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=891861676719111', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg5MTg2MTY3NjcxOTExMQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184OTE4NjE2NzY3MTkxMTE=', 'date': '2026-01-12T13:35:29.000Z', 'text': 'Con obleas', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-1/46</t>
         </is>
       </c>
     </row>
@@ -1530,23 +1496,23 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dulce y harina triglicéridos e hígado graso</t>
+          <t>Con calado</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-01-12T00:22:16.000Z</t>
+          <t>2026-01-12T05:00:42.000Z</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>46034.01546296296</v>
+        <v>46034.20881944444</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>00:22:16</t>
+          <t>05:00:42</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1562,7 +1528,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1404000434716821', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDQwMDA0MzQ3MTY4MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA0MDAwNDM0NzE2ODIx', 'date': '2026-01-12T00:22:16.000Z', 'text': 'Dulce y harina triglicéridos e hígado graso', 'profileUrl': 'https://www.facebook.co</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1753137772023259', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE3NTMxMzc3NzIwMjMyNTk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNzUzMTM3NzcyMDIzMjU5', 'date': '2026-01-12T05:00:42.000Z', 'text': 'Con calado', 'profileUrl': 'https://www.facebook.com/maria.pava.503', 'profilePictur</t>
         </is>
       </c>
     </row>
@@ -1588,23 +1554,23 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Arequipe alpina  el más rico  con todo .</t>
+          <t>Dulce y harina triglicéridos e hígado graso</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2026-01-11T23:21:27.000Z</t>
+          <t>2026-01-12T00:22:16.000Z</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>46033.97322916667</v>
+        <v>46034.01546296296</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>46033</v>
+        <v>46034</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>23:21:27</t>
+          <t>00:22:16</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1620,7 +1586,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2419646591788152', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI0MTk2NDY1OTE3ODgxNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNDE5NjQ2NTkxNzg4MTUy', 'date': '2026-01-11T23:21:27.000Z', 'text': 'Arequipe alpina  el más rico  con todo .', 'profileUrl': 'https://www.facebook.com/v</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1404000434716821', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDQwMDA0MzQ3MTY4MjE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA0MDAwNDM0NzE2ODIx', 'date': '2026-01-12T00:22:16.000Z', 'text': 'Dulce y harina triglicéridos e hígado graso', 'profileUrl': 'https://www.facebook.co</t>
         </is>
       </c>
     </row>
@@ -1646,23 +1612,23 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>U1</t>
+          <t>Arequipe alpina  el más rico  con todo .</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2026-01-11T22:34:17.000Z</t>
+          <t>2026-01-11T23:21:27.000Z</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>46033.94047453703</v>
+        <v>46033.97322916667</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>46033</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>22:34:17</t>
+          <t>23:21:27</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1678,7 +1644,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25884631314488389', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1ODg0NjMxMzE0NDg4Mzg5', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTg4NDYzMTMxNDQ4ODM4OQ==', 'date': '2026-01-11T22:34:17.000Z', 'text': 'U1', 'profileUrl': 'https://www.facebook.com/yoveidis.medina.marchena.2025', 'p</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2419646591788152', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI0MTk2NDY1OTE3ODgxNTI=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNDE5NjQ2NTkxNzg4MTUy', 'date': '2026-01-11T23:21:27.000Z', 'text': 'Arequipe alpina  el más rico  con todo .', 'profileUrl': 'https://www.facebook.com/v</t>
         </is>
       </c>
     </row>
@@ -1704,23 +1670,23 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Le rayo queso costeño</t>
+          <t>U1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2026-01-11T22:25:58.000Z</t>
+          <t>2026-01-11T22:34:17.000Z</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>46033.93469907407</v>
+        <v>46033.94047453703</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>46033</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22:25:58</t>
+          <t>22:34:17</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1736,7 +1702,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1395006908826553', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzOTUwMDY5MDg4MjY1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzk1MDA2OTA4ODI2NTUz', 'date': '2026-01-11T22:25:58.000Z', 'text': 'Le rayo queso costeño', 'profileUrl': 'https://www.facebook.com/wilson.vasquez.velas</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25884631314488389', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1ODg0NjMxMzE0NDg4Mzg5', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTg4NDYzMTMxNDQ4ODM4OQ==', 'date': '2026-01-11T22:34:17.000Z', 'text': 'U1', 'profileUrl': 'https://www.facebook.com/yoveidis.medina.marchena.2025', 'p</t>
         </is>
       </c>
     </row>
@@ -1762,23 +1728,23 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Con fresas!!!!!!😍😍😍😍😍😍😍😍</t>
+          <t>Le rayo queso costeño</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2026-01-10T23:10:23.000Z</t>
+          <t>2026-01-11T22:25:58.000Z</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>46032.96554398148</v>
+        <v>46033.93469907407</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>46032</v>
+        <v>46033</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23:10:23</t>
+          <t>22:25:58</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1794,7 +1760,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=859626413372345', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg1OTYyNjQxMzM3MjM0NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NTk2MjY0MTMzNzIzNDU=', 'date': '2026-01-10T23:10:23.000Z', 'text': 'Con fresas!!!!!!😍😍😍😍😍😍😍😍', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1395006908826553', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzOTUwMDY5MDg4MjY1NTM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzk1MDA2OTA4ODI2NTUz', 'date': '2026-01-11T22:25:58.000Z', 'text': 'Le rayo queso costeño', 'profileUrl': 'https://www.facebook.com/wilson.vasquez.velas</t>
         </is>
       </c>
     </row>
@@ -1820,23 +1786,23 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Una loca una vez me dijo q se los comia con doritos</t>
+          <t>Con fresas!!!!!!😍😍😍😍😍😍😍😍</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2026-01-10T06:18:16.000Z</t>
+          <t>2026-01-10T23:10:23.000Z</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>46032.26268518518</v>
+        <v>46032.96554398148</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>46032</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>06:18:16</t>
+          <t>23:10:23</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1852,7 +1818,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870522879032047', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDUyMjg3OTAzMjA0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA1MjI4NzkwMzIwNDc=', 'date': '2026-01-10T06:18:16.000Z', 'text': 'Una loca una vez me dijo q se los comia con doritos', 'profileUrl': 'https://www.face</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=859626413372345', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg1OTYyNjQxMzM3MjM0NQ==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NTk2MjY0MTMzNzIzNDU=', 'date': '2026-01-10T23:10:23.000Z', 'text': 'Con fresas!!!!!!😍😍😍😍😍😍😍😍', 'profilePicture': 'https://scontent-lax7-1.xx.fbcdn.net/v/</t>
         </is>
       </c>
     </row>
@@ -1878,27 +1844,27 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Que rico con un pedazo de queso como lo vendían antes 🤤</t>
+          <t>Una loca una vez me dijo q se los comia con doritos</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2026-01-10T00:09:06.000Z</t>
+          <t>2026-01-10T06:18:16.000Z</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>46032.00631944444</v>
+        <v>46032.26268518518</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>46032</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>00:09:06</t>
+          <t>06:18:16</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1910,7 +1876,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1886660978614343', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE4ODY2NjA5Nzg2MTQzNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xODg2NjYwOTc4NjE0MzQz', 'date': '2026-01-10T00:09:06.000Z', 'text': 'Que rico con un pedazo de queso como lo vendían antes 🤤', 'profileUrl': 'https://www</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870522879032047', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDUyMjg3OTAzMjA0Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA1MjI4NzkwMzIwNDc=', 'date': '2026-01-10T06:18:16.000Z', 'text': 'Una loca una vez me dijo q se los comia con doritos', 'profileUrl': 'https://www.face</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1902,27 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Con papitas de limón una delicia 😋</t>
+          <t>Que rico con un pedazo de queso como lo vendían antes 🤤</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2026-01-09T23:02:03.000Z</t>
+          <t>2026-01-10T00:09:06.000Z</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>46031.95975694444</v>
+        <v>46032.00631944444</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>46031</v>
+        <v>46032</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>23:02:03</t>
+          <t>00:09:06</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1968,7 +1934,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2128202687922696', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxMjgyMDI2ODc5MjI2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTI4MjAyNjg3OTIyNjk2', 'date': '2026-01-09T23:02:03.000Z', 'text': 'Con papitas de limón una delicia 😋', 'profileUrl': 'https://www.facebook.com/yesenia</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1886660978614343', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE4ODY2NjA5Nzg2MTQzNDM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xODg2NjYwOTc4NjE0MzQz', 'date': '2026-01-10T00:09:06.000Z', 'text': 'Que rico con un pedazo de queso como lo vendían antes 🤤', 'profileUrl': 'https://www</t>
         </is>
       </c>
     </row>
@@ -1994,23 +1960,23 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Saludos</t>
+          <t>Con papitas de limón una delicia 😋</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2026-01-09T21:29:33.000Z</t>
+          <t>2026-01-09T23:02:03.000Z</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>46031.89552083334</v>
+        <v>46031.95975694444</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>21:29:33</t>
+          <t>23:02:03</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -2026,7 +1992,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1367249577972718', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjcyNDk1Nzc5NzI3MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY3MjQ5NTc3OTcyNzE4', 'date': '2026-01-09T21:29:33.000Z', 'text': 'Saludos', 'profileUrl': 'https://www.facebook.com/people/El-moreno-del-humor/6155417</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2128202687922696', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxMjgyMDI2ODc5MjI2OTY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTI4MjAyNjg3OTIyNjk2', 'date': '2026-01-09T23:02:03.000Z', 'text': 'Con papitas de limón una delicia 😋', 'profileUrl': 'https://www.facebook.com/yesenia</t>
         </is>
       </c>
     </row>
@@ -2052,27 +2018,27 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pa un cancer</t>
+          <t>Saludos</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2026-01-09T20:23:22.000Z</t>
+          <t>2026-01-09T21:29:33.000Z</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>46031.84956018518</v>
+        <v>46031.89552083334</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>20:23:22</t>
+          <t>21:29:33</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2084,7 +2050,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1282392983923173', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyODIzOTI5ODM5MjMxNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjgyMzkyOTgzOTIzMTcz', 'date': '2026-01-09T20:23:22.000Z', 'text': 'Pa un cancer', 'profileUrl': 'https://www.facebook.com/mauricio.ariasgarzon.9', 'pro</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1367249577972718', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjcyNDk1Nzc5NzI3MTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY3MjQ5NTc3OTcyNzE4', 'date': '2026-01-09T21:29:33.000Z', 'text': 'Saludos', 'profileUrl': 'https://www.facebook.com/people/El-moreno-del-humor/6155417</t>
         </is>
       </c>
     </row>
@@ -2110,27 +2076,27 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Con cuca eso es un pan</t>
+          <t>Pa un cancer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2026-01-09T19:18:22.000Z</t>
+          <t>2026-01-09T20:23:22.000Z</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>46031.8044212963</v>
+        <v>46031.84956018518</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>19:18:22</t>
+          <t>20:23:22</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2142,7 +2108,7 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1668322601218526', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2NjgzMjI2MDEyMTg1MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjY4MzIyNjAxMjE4NTI2', 'date': '2026-01-09T19:18:22.000Z', 'text': 'Con cuca eso es un pan', 'profileUrl': 'https://www.facebook.com/people/Jonathan-Per</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1282392983923173', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEyODIzOTI5ODM5MjMxNzM=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMjgyMzkyOTgzOTIzMTcz', 'date': '2026-01-09T20:23:22.000Z', 'text': 'Pa un cancer', 'profileUrl': 'https://www.facebook.com/mauricio.ariasgarzon.9', 'pro</t>
         </is>
       </c>
     </row>
@@ -2168,23 +2134,23 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Solo !!!</t>
+          <t>Con cuca eso es un pan</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2026-01-09T19:12:23.000Z</t>
+          <t>2026-01-09T19:18:22.000Z</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>46031.8002662037</v>
+        <v>46031.8044212963</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>19:12:23</t>
+          <t>19:18:22</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2200,7 +2166,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1944940596458498', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE5NDQ5NDA1OTY0NTg0OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xOTQ0OTQwNTk2NDU4NDk4', 'date': '2026-01-09T19:12:23.000Z', 'text': 'Solo !!!', 'profileUrl': 'https://www.facebook.com/francisco.salazar.3538', 'profile</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1668322601218526', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2NjgzMjI2MDEyMTg1MjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjY4MzIyNjAxMjE4NTI2', 'date': '2026-01-09T19:18:22.000Z', 'text': 'Con cuca eso es un pan', 'profileUrl': 'https://www.facebook.com/people/Jonathan-Per</t>
         </is>
       </c>
     </row>
@@ -2226,23 +2192,23 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dios cristojesu Espiritusanto</t>
+          <t>Solo !!!</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2026-01-09T15:57:57.000Z</t>
+          <t>2026-01-09T19:12:23.000Z</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>46031.66524305556</v>
+        <v>46031.8002662037</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>15:57:57</t>
+          <t>19:12:23</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2258,7 +2224,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2171705350315851', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxNzE3MDUzNTAzMTU4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTcxNzA1MzUwMzE1ODUx', 'date': '2026-01-09T15:57:57.000Z', 'text': 'Dios cristojesu Espiritusanto', 'profileUrl': 'https://www.facebook.com/james.perezc</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1944940596458498', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE5NDQ5NDA1OTY0NTg0OTg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xOTQ0OTQwNTk2NDU4NDk4', 'date': '2026-01-09T19:12:23.000Z', 'text': 'Solo !!!', 'profileUrl': 'https://www.facebook.com/francisco.salazar.3538', 'profile</t>
         </is>
       </c>
     </row>
@@ -2284,23 +2250,23 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
+          <t>Dios cristojesu Espiritusanto</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2026-01-09T04:56:43.000Z</t>
+          <t>2026-01-09T15:57:57.000Z</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>46031.20605324074</v>
+        <v>46031.66524305556</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>04:56:43</t>
+          <t>15:57:57</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2316,7 +2282,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2171705350315851', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzIxNzE3MDUzNTAzMTU4NTE=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yMTcxNzA1MzUwMzE1ODUx', 'date': '2026-01-09T15:57:57.000Z', 'text': 'Dios cristojesu Espiritusanto', 'profileUrl': 'https://www.facebook.com/james.perezc</t>
         </is>
       </c>
     </row>
@@ -2342,23 +2308,23 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
+          <t>Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2026-01-09T04:16:34.000Z</t>
+          <t>2026-01-09T04:56:43.000Z</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>46031.1781712963</v>
+        <v>46031.20605324074</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>04:16:34</t>
+          <t>04:56:43</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2374,7 +2340,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1612191580222869', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE2MTIxOTE1ODAyMjI4Njk=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNjEyMTkxNTgwMjIyODY5', 'date': '2026-01-09T04:56:43.000Z', 'text': 'Yo.  Solo  lo. Saco. Con mi. Dedo. Y pa. Dentro.', 'profileUrl': 'https://www.facebo</t>
         </is>
       </c>
     </row>
@@ -2400,23 +2366,23 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Con galletas de soda....</t>
+          <t>No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los $1.500 del taco saltin y como más rico y la opción de comprar así sean 3 mil de queso costeño. Pa hacer un sándwich de galleta con queso y arequipe jeje</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2026-01-09T01:05:37.000Z</t>
+          <t>2026-01-09T04:16:34.000Z</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>46031.04556712963</v>
+        <v>46031.1781712963</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>01:05:37</t>
+          <t>04:16:34</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2432,7 +2398,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=2721673288178668', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI3MjE2NzMyODgxNzg2Njg=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNzIxNjczMjg4MTc4NjY4', 'date': '2026-01-09T04:16:34.000Z', 'text': 'No pero $4.500 pa ensuciarse la muela. No mano. Eso no vale la pena. Mejor pago los </t>
         </is>
       </c>
     </row>
@@ -2458,23 +2424,23 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Con galletas de soda....</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2026-01-08T22:07:31.000Z</t>
+          <t>2026-01-09T01:05:37.000Z</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
-        <v>46030.92188657408</v>
+        <v>46031.04556712963</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>46030</v>
+        <v>46031</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>22:07:31</t>
+          <t>01:05:37</t>
         </is>
       </c>
       <c r="K36" t="n">
@@ -2490,7 +2456,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1409373564159730', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzE0MDkzNzM1NjQxNTk3MzA=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xNDA5MzczNTY0MTU5NzMw', 'date': '2026-01-09T01:05:37.000Z', 'text': 'Con galletas de soda....', 'profileUrl': 'https://www.facebook.com/deisyandrea.marin</t>
         </is>
       </c>
     </row>
@@ -2516,23 +2482,23 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2026-01-08T20:08:02.000Z</t>
+          <t>2026-01-08T22:07:31.000Z</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>46030.83891203703</v>
+        <v>46030.92188657408</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>20:08:02</t>
+          <t>22:07:31</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -2548,7 +2514,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=870650915711997', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3Xzg3MDY1MDkxNTcxMTk5Nw==', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN184NzA2NTA5MTU3MTE5OTc=', 'date': '2026-01-08T22:07:31.000Z', 'text': '1', 'profilePicture': 'https://scontent-iad3-2.xx.fbcdn.net/v/t39.30808-1/472669620_1</t>
         </is>
       </c>
     </row>
@@ -2574,23 +2540,23 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>😍😍😍😋</t>
+          <t>Eso es lo q vale 15lukas en sandwich qbano eso es mero robo</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2026-01-08T03:17:28.000Z</t>
+          <t>2026-01-08T20:08:02.000Z</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>46030.13712962963</v>
+        <v>46030.83891203703</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>03:17:28</t>
+          <t>20:08:02</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -2606,7 +2572,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=3042158472650995', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzMwNDIxNTg0NzI2NTA5OTU=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18zMDQyMTU4NDcyNjUwOTk1', 'date': '2026-01-08T20:08:02.000Z', 'text': 'Eso es lo q vale 15lukas en sandwich qbano eso es mero robo', 'profileUrl': 'https:/</t>
         </is>
       </c>
     </row>
@@ -2632,23 +2598,23 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Muy dulce</t>
+          <t>😍😍😍😋</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2026-01-07T20:37:57.000Z</t>
+          <t>2026-01-08T03:17:28.000Z</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>46029.8596875</v>
+        <v>46030.13712962963</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>46029</v>
+        <v>46030</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>20:37:57</t>
+          <t>03:17:28</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -2664,9 +2630,823 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=25509492045398285', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzI1NTA5NDkyMDQ1Mzk4Mjg1', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18yNTUwOTQ5MjA0NTM5ODI4NQ==', 'date': '2026-01-08T03:17:28.000Z', 'text': '😍😍😍😋', 'profileUrl': 'https://www.facebook.com/paulitha.montalvo.9', 'profilePi</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Muy dulce</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:37:57.000Z</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>46029.8596875</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20:37:57</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl', 'commentUrl': 'https://www.facebook.com/reel/2279884532506138/?comment_id=1366545264600266', 'id': 'Y29tbWVudDoxMzE3NTcyNzU3MDgxNjI3XzEzNjY1NDUyNjQ2MDAyNjY=', 'feedbackId': 'ZmVlZGJhY2s6MTMxNzU3Mjc1NzA4MTYyN18xMzY2NTQ1MjY0NjAwMjY2', 'date': '2026-01-07T20:37:57.000Z', 'text': 'Muy dulce', 'profileUrl': 'https://www.facebook.com/esperanza.roalarrotta', 'profile</t>
         </is>
       </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323127066526196/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323127066526196/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1327101149462121/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1327101149462121/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ángela Marín esas manitos jajajaja</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2026-01-19T20:16:16.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>46041.84462962963</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>46041</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20:16:16</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=2111166872952117', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzIxMTExNjY4NzI5NTIxMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8yMTExMTY2ODcyOTUyMTE3', 'date': '2026-01-19T20:16:16.000Z', 'text': 'Ángela Marín esas manitos jajajaja', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Que no se mire forzado :v</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2026-01-18T22:04:28.000Z</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>46040.91976851852</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>22:04:28</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1463942665326147', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE0NjM5NDI2NjUzMjYxNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xNDYzOTQyNjY1MzI2MTQ3', 'date': '2026-01-18T22:04:28.000Z', 'text': 'Que no se mire forzado :v', 'profileUrl': 'https://www.facebook.com/people/Sebastian-Montenegro/pfbid0rMt7iynZhMJ9EToSCx6vLjdfUpHTZZw3CkTC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Que color más horrible. Cada vez más claro y más rebajado. De dulce de leche nada.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2026-01-18T09:39:14.000Z</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>46040.40224537037</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>46040</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>09:39:14</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=948928814970554', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1Xzk0ODkyODgxNDk3MDU1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV85NDg5Mjg4MTQ5NzA1NTQ=', 'date': '2026-01-18T09:39:14.000Z', 'text': 'Que color más horrible. Cada vez más claro y más rebajado. De dulce de leche nada.', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.ne</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Ser adicto al arequipe y no poder comer..... Definitivamente el salado no tiene descanso (yo)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2026-01-16T22:35:10.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>46038.94108796296</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>22:35:10</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1217901323004863', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzEyMTc5MDEzMjMwMDQ4NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMjE3OTAxMzIzMDA0ODYz', 'date': '2026-01-16T22:35:10.000Z', 'text': 'Ser adicto al arequipe y no poder comer..... Definitivamente el salado no tiene descanso (yo)', 'profileUrl': 'https://www.facebook.com/pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>El publicista q engaña al pueblo no tienen ética ni moral.no cuestiona la empresa .</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2026-01-16T18:42:54.000Z</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>46038.77979166667</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>18:42:54</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1132182612183783', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzExMzIxODI2MTIxODM3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMTMyMTgyNjEyMTgzNzgz', 'date': '2026-01-16T18:42:54.000Z', 'text': 'El publicista q engaña al pueblo no tienen ética ni moral.no cuestiona la empresa .', 'profileUrl': 'https://www.facebook.com/people/Luis-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Alpina lo más fino de Colombia</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2026-01-16T17:58:55.000Z</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>46038.74924768518</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>17:58:55</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1422825829225149', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE0MjI4MjU4MjkyMjUxNDk=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xNDIyODI1ODI5MjI1MTQ5', 'date': '2026-01-16T17:58:55.000Z', 'text': 'Alpina lo más fino de Colombia', 'profileUrl': 'https://www.facebook.com/javier.medina.549918', 'profilePicture': 'https://scontent-bos5-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Trr</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2026-01-16T02:16:55.000Z</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>46038.09508101852</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>02:16:55</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=905743165489584', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzkwNTc0MzE2NTQ4OTU4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV85MDU3NDMxNjU0ODk1ODQ=', 'date': '2026-01-16T02:16:55.000Z', 'text': 'Trr', 'profileUrl': 'https://www.facebook.com/people/Janeis-Cuadros/pfbid02X6syVdpR4Ur3weyhFJt5uweC8yr8fiVxxFq2Lko5vWg4zTnhuSMjL2KyQTTQjoYL</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>12</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>13</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>14</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>15</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>16</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2679,7 +3459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2919,6 +3699,194 @@
       <c r="G9" s="2" t="n">
         <v>46035.10305555556</v>
       </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323127066526196/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1327101149462121/</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>46038.09508101852</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>46041.84462962963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2973,16 +3941,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3015,7 +3983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3038,7 +4006,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0GrGA7sFiPTmhwGHbQCmpcJNYqbnPGV8RTZA6fm4ycm3aSD783pt1VCi9gbzPvn4hl</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3050,7 +4018,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323127066526196/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3062,7 +4030,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3086,10 +4054,130 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02g86NL2qqNZY3Q1LEzSurWq9SJ4p9VCqWxQmRgz7Paoekj35wC6iWZgKeHmbwjKcrl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02Stti8Hq5aCxK1Erpf4yXHiLSd9bxcQUnBL1NMp9VtbPTzUmko1MGwd8QcLRt29hMl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1327101149462121/</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -3143,19 +4231,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -26,16 +26,13 @@
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -54,21 +51,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -436,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,82 +433,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>post_number</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>platform</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>post_url</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>post_url_original</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>author_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>comment_text</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>created_time</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>created_time_processed</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>fecha_comentario</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>hora_comentario</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>likes_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>replies_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>is_reply</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>author_url</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>extraction_status</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>created_time_raw</t>
         </is>
@@ -560,10 +548,10 @@
           <t>2026-01-10T00:50:17.000Z</t>
         </is>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>46032.03491898148</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>46032</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -752,10 +740,10 @@
           <t>2025-12-30T01:24:33.000Z</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>46021.05871527778</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>46021</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -982,10 +970,10 @@
           <t>2026-01-13T02:28:24.000Z</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="1" t="n">
         <v>46035.10305555556</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>46035</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1040,10 +1028,10 @@
           <t>2026-01-13T01:24:55.000Z</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="1" t="n">
         <v>46035.0589699074</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>46035</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1098,10 +1086,10 @@
           <t>2026-01-12T23:34:49.000Z</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="1" t="n">
         <v>46034.98251157408</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1156,10 +1144,10 @@
           <t>2026-01-12T23:24:47.000Z</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="1" t="n">
         <v>46034.97554398148</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1214,10 +1202,10 @@
           <t>2026-01-12T20:06:54.000Z</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="1" t="n">
         <v>46034.838125</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1272,10 +1260,10 @@
           <t>2026-01-12T18:38:02.000Z</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="1" t="n">
         <v>46034.77641203703</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1330,10 +1318,10 @@
           <t>2026-01-12T16:10:56.000Z</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="1" t="n">
         <v>46034.67425925926</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1388,10 +1376,10 @@
           <t>2026-01-12T15:06:29.000Z</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="1" t="n">
         <v>46034.62950231481</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1446,10 +1434,10 @@
           <t>2026-01-12T13:35:29.000Z</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="1" t="n">
         <v>46034.56630787037</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1504,10 +1492,10 @@
           <t>2026-01-12T05:00:42.000Z</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="1" t="n">
         <v>46034.20881944444</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1562,10 +1550,10 @@
           <t>2026-01-12T00:22:16.000Z</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="1" t="n">
         <v>46034.01546296296</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <v>46034</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1620,10 +1608,10 @@
           <t>2026-01-11T23:21:27.000Z</t>
         </is>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="1" t="n">
         <v>46033.97322916667</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <v>46033</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1678,10 +1666,10 @@
           <t>2026-01-11T22:34:17.000Z</t>
         </is>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="1" t="n">
         <v>46033.94047453703</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <v>46033</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1736,10 +1724,10 @@
           <t>2026-01-11T22:25:58.000Z</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="1" t="n">
         <v>46033.93469907407</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="1" t="n">
         <v>46033</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1794,10 +1782,10 @@
           <t>2026-01-10T23:10:23.000Z</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="1" t="n">
         <v>46032.96554398148</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <v>46032</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1852,10 +1840,10 @@
           <t>2026-01-10T06:18:16.000Z</t>
         </is>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="1" t="n">
         <v>46032.26268518518</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="1" t="n">
         <v>46032</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1910,10 +1898,10 @@
           <t>2026-01-10T00:09:06.000Z</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="1" t="n">
         <v>46032.00631944444</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="1" t="n">
         <v>46032</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -1968,10 +1956,10 @@
           <t>2026-01-09T23:02:03.000Z</t>
         </is>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="1" t="n">
         <v>46031.95975694444</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2026,10 +2014,10 @@
           <t>2026-01-09T21:29:33.000Z</t>
         </is>
       </c>
-      <c r="H29" s="2" t="n">
+      <c r="H29" s="1" t="n">
         <v>46031.89552083334</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2084,10 +2072,10 @@
           <t>2026-01-09T20:23:22.000Z</t>
         </is>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="1" t="n">
         <v>46031.84956018518</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2142,10 +2130,10 @@
           <t>2026-01-09T19:18:22.000Z</t>
         </is>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="1" t="n">
         <v>46031.8044212963</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2200,10 +2188,10 @@
           <t>2026-01-09T19:12:23.000Z</t>
         </is>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="1" t="n">
         <v>46031.8002662037</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2258,10 +2246,10 @@
           <t>2026-01-09T15:57:57.000Z</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="1" t="n">
         <v>46031.66524305556</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2316,10 +2304,10 @@
           <t>2026-01-09T04:56:43.000Z</t>
         </is>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="1" t="n">
         <v>46031.20605324074</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2374,10 +2362,10 @@
           <t>2026-01-09T04:16:34.000Z</t>
         </is>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="1" t="n">
         <v>46031.1781712963</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2432,10 +2420,10 @@
           <t>2026-01-09T01:05:37.000Z</t>
         </is>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="1" t="n">
         <v>46031.04556712963</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="1" t="n">
         <v>46031</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2490,10 +2478,10 @@
           <t>2026-01-08T22:07:31.000Z</t>
         </is>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="1" t="n">
         <v>46030.92188657408</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="1" t="n">
         <v>46030</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2548,10 +2536,10 @@
           <t>2026-01-08T20:08:02.000Z</t>
         </is>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="1" t="n">
         <v>46030.83891203703</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="1" t="n">
         <v>46030</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2606,10 +2594,10 @@
           <t>2026-01-08T03:17:28.000Z</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="1" t="n">
         <v>46030.13712962963</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="1" t="n">
         <v>46030</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2664,10 +2652,10 @@
           <t>2026-01-07T20:37:57.000Z</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="1" t="n">
         <v>46029.8596875</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="1" t="n">
         <v>46029</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2840,28 +2828,28 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ángela Marín esas manitos jajajaja</t>
+          <t>El yogurt deslactosado¿ Se acabó ?</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2026-01-19T20:16:16.000Z</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>46041.84462962963</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>46041</v>
+          <t>2026-01-24T13:19:51.000Z</t>
+        </is>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>46046.55545138889</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>46046</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>20:16:16</t>
+          <t>13:19:51</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2874,7 +2862,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=2111166872952117', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzIxMTExNjY4NzI5NTIxMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8yMTExMTY2ODcyOTUyMTE3', 'date': '2026-01-19T20:16:16.000Z', 'text': 'Ángela Marín esas manitos jajajaja', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=809579462143427', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzgwOTU3OTQ2MjE0MzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV84MDk1Nzk0NjIxNDM0Mjc=', 'date': '2026-01-24T13:19:51.000Z', 'text': 'El yogurt deslactosado¿ Se acabó ?', 'profileUrl': 'https://www.facebook.com/dora.orozcoprado', 'profilePicture': 'https://scontent-lax7-1.</t>
         </is>
       </c>
     </row>
@@ -2900,28 +2888,28 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Que no se mire forzado :v</t>
+          <t>Lo empeoro demasiado azucar y cada vez mas liquida, no hay control de calidad que tristeza</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2026-01-18T22:04:28.000Z</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>46040.91976851852</v>
-      </c>
-      <c r="I45" s="3" t="n">
-        <v>46040</v>
+          <t>2026-01-23T16:47:02.000Z</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>46045.6993287037</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>46045</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>22:04:28</t>
+          <t>16:47:02</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -2934,7 +2922,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1463942665326147', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE0NjM5NDI2NjUzMjYxNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xNDYzOTQyNjY1MzI2MTQ3', 'date': '2026-01-18T22:04:28.000Z', 'text': 'Que no se mire forzado :v', 'profileUrl': 'https://www.facebook.com/people/Sebastian-Montenegro/pfbid0rMt7iynZhMJ9EToSCx6vLjdfUpHTZZw3CkTC</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1926753551210131', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE5MjY3NTM1NTEyMTAxMzE=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xOTI2NzUzNTUxMjEwMTMx', 'date': '2026-01-23T16:47:02.000Z', 'text': 'Lo empeoro demasiado azucar y cada vez mas liquida, no hay control de calidad que tristeza', 'profileUrl': 'https://www.facebook.com/germa</t>
         </is>
       </c>
     </row>
@@ -2960,23 +2948,23 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Que color más horrible. Cada vez más claro y más rebajado. De dulce de leche nada.</t>
+          <t>Delicioso</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2026-01-18T09:39:14.000Z</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>46040.40224537037</v>
-      </c>
-      <c r="I46" s="3" t="n">
-        <v>46040</v>
+          <t>2026-01-23T12:33:49.000Z</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>46045.5234837963</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>46045</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>09:39:14</t>
+          <t>12:33:49</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2994,7 +2982,7 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=948928814970554', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1Xzk0ODkyODgxNDk3MDU1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV85NDg5Mjg4MTQ5NzA1NTQ=', 'date': '2026-01-18T09:39:14.000Z', 'text': 'Que color más horrible. Cada vez más claro y más rebajado. De dulce de leche nada.', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.ne</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1389965459580997', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzEzODk5NjU0NTk1ODA5OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMzg5OTY1NDU5NTgwOTk3', 'date': '2026-01-23T12:33:49.000Z', 'text': 'Delicioso', 'profileUrl': 'https://www.facebook.com/maria.s.cardenas.33', 'profilePicture': 'https://scontent-lax3-1.xx.fbcdn.net/v/t39.30</t>
         </is>
       </c>
     </row>
@@ -3020,23 +3008,23 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ser adicto al arequipe y no poder comer..... Definitivamente el salado no tiene descanso (yo)</t>
+          <t>Yo creei que era una papa frita</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2026-01-16T22:35:10.000Z</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>46038.94108796296</v>
-      </c>
-      <c r="I47" s="3" t="n">
-        <v>46038</v>
+          <t>2026-01-21T05:42:35.000Z</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>46043.2379050926</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>46043</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>22:35:10</t>
+          <t>05:42:35</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3054,7 +3042,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1217901323004863', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzEyMTc5MDEzMjMwMDQ4NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMjE3OTAxMzIzMDA0ODYz', 'date': '2026-01-16T22:35:10.000Z', 'text': 'Ser adicto al arequipe y no poder comer..... Definitivamente el salado no tiene descanso (yo)', 'profileUrl': 'https://www.facebook.com/pe</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=745798168588674', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1Xzc0NTc5ODE2ODU4ODY3NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV83NDU3OTgxNjg1ODg2NzQ=', 'date': '2026-01-21T05:42:35.000Z', 'text': 'Yo creei que era una papa frita', 'profileUrl': 'https://www.facebook.com/danny.delgado.56614', 'profilePicture': 'https://scontent-lax7-1.</t>
         </is>
       </c>
     </row>
@@ -3080,29 +3068,27 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>El publicista q engaña al pueblo no tienen ética ni moral.no cuestiona la empresa .</t>
+          <t>Ángela Marín esas manitos jajajaja</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2026-01-16T18:42:54.000Z</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>46038.77979166667</v>
-      </c>
-      <c r="I48" s="3" t="n">
-        <v>46038</v>
+          <t>2026-01-19T20:16:16.000Z</t>
+        </is>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>46041.84462962963</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>46041</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>18:42:54</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:16:16</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3114,7 +3100,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1132182612183783', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzExMzIxODI2MTIxODM3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMTMyMTgyNjEyMTgzNzgz', 'date': '2026-01-16T18:42:54.000Z', 'text': 'El publicista q engaña al pueblo no tienen ética ni moral.no cuestiona la empresa .', 'profileUrl': 'https://www.facebook.com/people/Luis-</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=2111166872952117', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzIxMTExNjY4NzI5NTIxMTc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8yMTExMTY2ODcyOTUyMTE3', 'date': '2026-01-19T20:16:16.000Z', 'text': 'Ángela Marín esas manitos jajajaja', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t1.30497-1/453178253_471506465671661_278166</t>
         </is>
       </c>
     </row>
@@ -3140,29 +3126,27 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Alpina lo más fino de Colombia</t>
+          <t>Que no se mire forzado :v</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2026-01-16T17:58:55.000Z</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>46038.74924768518</v>
-      </c>
-      <c r="I49" s="3" t="n">
-        <v>46038</v>
+          <t>2026-01-18T22:04:28.000Z</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>46040.91976851852</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>46040</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>17:58:55</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>22:04:28</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3174,7 +3158,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1422825829225149', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE0MjI4MjU4MjkyMjUxNDk=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xNDIyODI1ODI5MjI1MTQ5', 'date': '2026-01-16T17:58:55.000Z', 'text': 'Alpina lo más fino de Colombia', 'profileUrl': 'https://www.facebook.com/javier.medina.549918', 'profilePicture': 'https://scontent-bos5-1</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1463942665326147', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE0NjM5NDI2NjUzMjYxNDc=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xNDYzOTQyNjY1MzI2MTQ3', 'date': '2026-01-18T22:04:28.000Z', 'text': 'Que no se mire forzado :v', 'profileUrl': 'https://www.facebook.com/people/Sebastian-Montenegro/pfbid0rMt7iynZhMJ9EToSCx6vLjdfUpHTZZw3CkTC</t>
         </is>
       </c>
     </row>
@@ -3200,29 +3184,27 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Trr</t>
+          <t>Que color más horrible. Cada vez más claro y más rebajado. De dulce de leche nada.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2026-01-16T02:16:55.000Z</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>46038.09508101852</v>
-      </c>
-      <c r="I50" s="3" t="n">
-        <v>46038</v>
+          <t>2026-01-18T09:39:14.000Z</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>46040.40224537037</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>46040</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>02:16:55</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>09:39:14</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3234,13 +3216,13 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=905743165489584', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzkwNTc0MzE2NTQ4OTU4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV85MDU3NDMxNjU0ODk1ODQ=', 'date': '2026-01-16T02:16:55.000Z', 'text': 'Trr', 'profileUrl': 'https://www.facebook.com/people/Janeis-Cuadros/pfbid02X6syVdpR4Ur3weyhFJt5uweC8yr8fiVxxFq2Lko5vWg4zTnhuSMjL2KyQTTQjoYL</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=948928814970554', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1Xzk0ODkyODgxNDk3MDU1NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV85NDg5Mjg4MTQ5NzA1NTQ=', 'date': '2026-01-18T09:39:14.000Z', 'text': 'Que color más horrible. Cada vez más claro y más rebajado. De dulce de leche nada.', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.ne</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3249,20 +3231,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ser adicto al arequipe y no poder comer..... Definitivamente el salado no tiene descanso (yo)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2026-01-16T22:35:10.000Z</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>46038.94108796296</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>22:35:10</t>
+        </is>
+      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -3273,38 +3271,54 @@
         <v>0</v>
       </c>
       <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1217901323004863', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzEyMTc5MDEzMjMwMDQ4NjM=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMjE3OTAxMzIzMDA0ODYz', 'date': '2026-01-16T22:35:10.000Z', 'text': 'Ser adicto al arequipe y no poder comer..... Definitivamente el salado no tiene descanso (yo)', 'profileUrl': 'https://www.facebook.com/pe</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>El publicista q engaña al pueblo no tienen ética ni moral.no cuestiona la empresa .</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2026-01-16T18:42:54.000Z</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>46038.77979166667</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>18:42:54</t>
+        </is>
+      </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -3315,38 +3329,54 @@
         <v>0</v>
       </c>
       <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1132182612183783', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzExMzIxODI2MTIxODM3ODM=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xMTMyMTgyNjEyMTgzNzgz', 'date': '2026-01-16T18:42:54.000Z', 'text': 'El publicista q engaña al pueblo no tienen ética ni moral.no cuestiona la empresa .', 'profileUrl': 'https://www.facebook.com/people/Luis-</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Alpina lo más fino de Colombia</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2026-01-16T17:58:55.000Z</t>
+        </is>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>46038.74924768518</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>17:58:55</t>
+        </is>
+      </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -3357,38 +3387,54 @@
         <v>0</v>
       </c>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=1422825829225149', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzE0MjI4MjU4MjkyMjUxNDk=', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV8xNDIyODI1ODI5MjI1MTQ5', 'date': '2026-01-16T17:58:55.000Z', 'text': 'Alpina lo más fino de Colombia', 'profileUrl': 'https://www.facebook.com/javier.medina.549918', 'profilePicture': 'https://scontent-bos5-1</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1323928609779375/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Trr</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2026-01-16T02:16:55.000Z</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>46038.09508101852</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>46038</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>02:16:55</t>
+        </is>
+      </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
@@ -3399,30 +3445,30 @@
         <v>0</v>
       </c>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1323928609779375/', 'commentUrl': 'https://www.facebook.com/reel/1175602981405923/?comment_id=905743165489584', 'id': 'Y29tbWVudDoxMzIzOTI4NjA5Nzc5Mzc1XzkwNTc0MzE2NTQ4OTU4NA==', 'feedbackId': 'ZmVlZGJhY2s6MTMyMzkyODYwOTc3OTM3NV85MDU3NDMxNjU0ODk1ODQ=', 'date': '2026-01-16T02:16:55.000Z', 'text': 'Trr', 'profileUrl': 'https://www.facebook.com/people/Janeis-Cuadros/pfbid02X6syVdpR4Ur3weyhFJt5uweC8yr8fiVxxFq2Lko5vWg4zTnhuSMjL2KyQTTQjoYL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1324626079709628/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3447,6 +3493,258 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>13</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>14</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>15</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>16</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1333973808774855/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1333973808774855/</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>18</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUBJifJjFfG/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUBJifJjFfG/</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3459,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3468,37 +3766,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>post_number</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>platform</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>post_url</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Total_Comentarios</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Total_Likes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Primera_Extraccion</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Ultima_Extraccion</t>
         </is>
@@ -3524,10 +3822,10 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>46032.03491898148</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>46032.03491898148</v>
       </c>
     </row>
@@ -3597,10 +3895,10 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="1" t="n">
         <v>46021.05871527778</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <v>46021.05871527778</v>
       </c>
     </row>
@@ -3693,10 +3991,10 @@
       <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="1" t="n">
         <v>46029.8596875</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <v>46035.10305555556</v>
       </c>
     </row>
@@ -3761,16 +4059,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>46038.09508101852</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>46041.84462962963</v>
+      <c r="G12" s="1" t="n">
+        <v>46046.55545138889</v>
       </c>
     </row>
     <row r="13">
@@ -3887,6 +4185,52 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1333973808774855/</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUBJifJjFfG/</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3908,27 +4252,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>platform</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Total_Posts</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Total_Comentarios</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Promedio_Likes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Total_Likes</t>
         </is>
@@ -3944,13 +4288,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D2" t="n">
         <v>0.24</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3983,7 +4327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,12 +4336,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -4090,7 +4434,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1333973808774855/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4102,7 +4446,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
+          <t>https://www.instagram.com/p/DTNttCmjGTm/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4114,7 +4458,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
+          <t>https://www.instagram.com/p/DTgNN9qjCR8/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4126,7 +4470,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
+          <t>https://www.instagram.com/p/DS3IpPyDFZi/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4138,7 +4482,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
+          <t>https://www.instagram.com/p/DS3I1dtjGt8/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4150,7 +4494,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
+          <t>https://www.instagram.com/p/DS3Ive2DMKz/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4162,7 +4506,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+          <t>https://www.instagram.com/p/DTsydR9DD-H/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4174,10 +4518,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>https://www.instagram.com/p/DTih_FbDGZi/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>https://www.instagram.com/p/DTkuMT9jOaW/</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DUBJifJjFfG/</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -4203,27 +4571,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>total_attempts</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>successful</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>no_comments</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>invalid_comments</t>
         </is>
@@ -4231,19 +4599,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -55,10 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2839,7 +2836,7 @@
       <c r="H44" s="1" t="n">
         <v>46046.55545138889</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="1" t="n">
         <v>46046</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -2847,10 +2844,8 @@
           <t>13:19:51</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K44" t="n">
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2899,7 +2894,7 @@
       <c r="H45" s="1" t="n">
         <v>46045.6993287037</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="1" t="n">
         <v>46045</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -2907,10 +2902,8 @@
           <t>16:47:02</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K45" t="n">
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2959,7 +2952,7 @@
       <c r="H46" s="1" t="n">
         <v>46045.5234837963</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="1" t="n">
         <v>46045</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -2967,10 +2960,8 @@
           <t>12:33:49</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K46" t="n">
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3019,7 +3010,7 @@
       <c r="H47" s="1" t="n">
         <v>46043.2379050926</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="1" t="n">
         <v>46043</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -3027,10 +3018,8 @@
           <t>05:42:35</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K47" t="n">
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
